--- a/logs/sessions/session_f31b92bb03d94e3cbeb87d88820eda42.xlsx
+++ b/logs/sessions/session_f31b92bb03d94e3cbeb87d88820eda42.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,159 @@
           <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-12-11T09:03:41.458422</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>secureuser</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-12-11T09:03:44.634244</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>secureuser</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/docs</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-11T09:03:44.788082</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>secureuser</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/openapi.json</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-11T09:58:30.025408</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>secureuser</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/auth/login</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/138.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
